--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_283.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_283.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,634 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.106312292358804</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(70.519024, 75.720294)]</t>
+          <t>[['F:hdim7/G#', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(64.08, 70.34)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:11.960000', '0:00:16.400000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:23.840000', '0:00:31.400000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_25</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2589285714285714</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:min', 'B:maj', 'E:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[('0:01:23.200000', '0:01:31.140000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:42.520000', '0:00:46.360000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5050505050505051</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(7.9, 20.52)]</t>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:06.880000', '0:01:14.940000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>jaah_79</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07731416549789621</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'Bb', 'F:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(68.64, 77.38), (16.82, 23.18)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B'], ['G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(60.12, 61.36), (58.4, 60.68)]</t>
+          <t>[('0:00:10.860000', '0:00:14.130000'), ('0:00:07.590000', '0:00:10.860000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:19.360000', '0:00:21.740000'), ('0:00:19.960000', '0:00:22.380000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2153846153846154</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj/G'], ['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(19.04, 22.58)]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(64.3, 67.9)]</t>
+          <t>[('0:01:36.940000', '0:01:43.280000'), ('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:36.120000', '0:01:43.440000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2491694352159468</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2848837209302326</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G/3']]</t>
+          <t>[['A:min', 'A:min', 'B:hdim7/D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(63.6, 66.04)]</t>
+          <t>[['F#:min', 'F#:min', 'B:min(6)']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(5.146, 9.474)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:16.180000', '0:00:20.480000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:14.838000', '0:01:19.910000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4714285714285714</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(154.76, 160.98)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(1.014823, 13.657911)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1015151515151515</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:maj', 'F:maj'], ['F:maj', 'G:min', 'F/3'], ['C:maj', 'F:maj', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G'], ['G', 'A:min', 'G/3'], ['D', 'G', 'A:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(138.21, 142.877), (66.163, 67.545), (64.473, 67.15)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.187152, 7.043615), (23.460123, 24.911369), (44.70638, 52.647605)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:00.260000', '0:00:07.820000'), ('0:00:55.680000', '0:01:02.280000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:00.120000', '0:01:01.360000'), ('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
+          <t>[['F', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(66.52, 70.14)]</t>
+          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(19.98, 27.18)]</t>
+          <t>[('0:00:07.640000', '0:00:17.660000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:04.520000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_228</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_124</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1770833333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'B']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4666666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'C/5']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(1.771088, 15.586961)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(18.409886, 23.506665)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:04.920000', '0:02:09.320000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.46, 11.26)]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(24.86, 45.46)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:22.240000', '0:01:29.660000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1519886363636364</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.03, 14.36)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1578947368421053</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:sus4', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_60</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:sus4', 'G', 'C']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(26.14043, 31.051451)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(100.826, 106.71)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:06.300000', '0:01:59.400000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_59</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2833333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(252.62, 257.6)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(240.86, 253.72)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
